--- a/SAS case study 2 (Excel file).xlsx
+++ b/SAS case study 2 (Excel file).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="77">
   <si>
     <t>month</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>VARIATION IN LAPTOP PRICES WITH TIME</t>
   </si>
+  <si>
+    <t>Aman</t>
+  </si>
 </sst>
 </file>
 
@@ -637,11 +640,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72824704"/>
-        <c:axId val="72835456"/>
+        <c:axId val="37563392"/>
+        <c:axId val="80048896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72824704"/>
+        <c:axId val="37563392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,14 +668,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72835456"/>
+        <c:crossAx val="80048896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72835456"/>
+        <c:axId val="80048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +700,7 @@
         </c:title>
         <c:numFmt formatCode="##0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72824704"/>
+        <c:crossAx val="37563392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -719,7 +722,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -746,7 +749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -882,11 +884,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73020160"/>
-        <c:axId val="73022080"/>
+        <c:axId val="81024128"/>
+        <c:axId val="81026048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73020160"/>
+        <c:axId val="81024128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,17 +909,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73022080"/>
+        <c:crossAx val="81026048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73022080"/>
+        <c:axId val="81026048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,11 +939,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="##0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73020160"/>
+        <c:crossAx val="81024128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,13 +958,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -990,7 +989,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1126,8 +1124,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77835264"/>
-        <c:axId val="77833344"/>
+        <c:axId val="81689984"/>
+        <c:axId val="81688064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1255,11 +1253,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77821056"/>
-        <c:axId val="77822976"/>
+        <c:axId val="81683968"/>
+        <c:axId val="81685888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77821056"/>
+        <c:axId val="81683968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,17 +1278,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77822976"/>
+        <c:crossAx val="81685888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77822976"/>
+        <c:axId val="81685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,16 +1309,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#######0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77821056"/>
+        <c:crossAx val="81683968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77833344"/>
+        <c:axId val="81688064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,23 +1338,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="##0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77835264"/>
+        <c:crossAx val="81689984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77835264"/>
+        <c:axId val="81689984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77833344"/>
+        <c:crossAx val="81688064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1371,10 +1366,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80092011710581479"/>
-          <c:y val="0.76802090725783878"/>
+          <c:x val="0.8009201171058149"/>
+          <c:y val="0.76802090725783889"/>
           <c:w val="0.1806775407779172"/>
-          <c:h val="9.8521847859146694E-2"/>
+          <c:h val="9.8521847859146722E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1383,7 +1378,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1393,9 +1388,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1526,24 +1519,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78281728"/>
-        <c:axId val="78295808"/>
+        <c:axId val="81755520"/>
+        <c:axId val="81761408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78281728"/>
+        <c:axId val="81755520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78295808"/>
+        <c:crossAx val="81761408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78295808"/>
+        <c:axId val="81761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,20 +1544,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="###0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78281728"/>
+        <c:crossAx val="81755520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1595,7 +1587,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16233766233766234"/>
-          <c:y val="2.7777777777777863E-2"/>
+          <c:y val="2.7777777777777877E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1715,8 +1707,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78592640"/>
-        <c:axId val="78607104"/>
+        <c:axId val="83381248"/>
+        <c:axId val="83391616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1835,11 +1827,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78611200"/>
-        <c:axId val="78609024"/>
+        <c:axId val="83395712"/>
+        <c:axId val="83393536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78592640"/>
+        <c:axId val="83381248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,17 +1852,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78607104"/>
+        <c:crossAx val="83391616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78607104"/>
+        <c:axId val="83391616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,16 +1883,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode=".0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78592640"/>
+        <c:crossAx val="83381248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78609024"/>
+        <c:axId val="83393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,23 +1912,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode=".00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78611200"/>
+        <c:crossAx val="83395712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78611200"/>
+        <c:axId val="83395712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78609024"/>
+        <c:crossAx val="83393536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +1939,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2115,7 +2104,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2279,7 +2268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2644,7 +2633,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1"/>
@@ -2765,7 +2754,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
